--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Plau-Igf2r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Plau-Igf2r.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.21270066666667</v>
+        <v>4.616372666666667</v>
       </c>
       <c r="H2">
-        <v>129.638102</v>
+        <v>13.849118</v>
       </c>
       <c r="I2">
-        <v>0.1487696778665633</v>
+        <v>0.0183283362562958</v>
       </c>
       <c r="J2">
-        <v>0.1487696778665633</v>
+        <v>0.01832833625629581</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.94073466666667</v>
+        <v>13.76827833333333</v>
       </c>
       <c r="N2">
-        <v>95.822204</v>
+        <v>41.304835</v>
       </c>
       <c r="O2">
-        <v>0.3365562672414605</v>
+        <v>0.1794330173761795</v>
       </c>
       <c r="P2">
-        <v>0.3365562672414606</v>
+        <v>0.1794330173761795</v>
       </c>
       <c r="Q2">
-        <v>1380.24540622409</v>
+        <v>63.55950376505889</v>
       </c>
       <c r="R2">
-        <v>12422.20865601681</v>
+        <v>572.03553388553</v>
       </c>
       <c r="S2">
-        <v>0.05006936746148508</v>
+        <v>0.003288708677952385</v>
       </c>
       <c r="T2">
-        <v>0.05006936746148508</v>
+        <v>0.003288708677952386</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.21270066666667</v>
+        <v>4.616372666666667</v>
       </c>
       <c r="H3">
-        <v>129.638102</v>
+        <v>13.849118</v>
       </c>
       <c r="I3">
-        <v>0.1487696778665633</v>
+        <v>0.0183283362562958</v>
       </c>
       <c r="J3">
-        <v>0.1487696778665633</v>
+        <v>0.01832833625629581</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>115.755847</v>
       </c>
       <c r="O3">
-        <v>0.406569189096231</v>
+        <v>0.5028568908735593</v>
       </c>
       <c r="P3">
-        <v>0.406569189096231</v>
+        <v>0.5028568908735593</v>
       </c>
       <c r="Q3">
-        <v>1667.374255609155</v>
+        <v>178.1240426992162</v>
       </c>
       <c r="R3">
-        <v>15006.36830048239</v>
+        <v>1603.116384292946</v>
       </c>
       <c r="S3">
-        <v>0.06048516729231614</v>
+        <v>0.009216530184726041</v>
       </c>
       <c r="T3">
-        <v>0.06048516729231614</v>
+        <v>0.009216530184726042</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.21270066666667</v>
+        <v>4.616372666666667</v>
       </c>
       <c r="H4">
-        <v>129.638102</v>
+        <v>13.849118</v>
       </c>
       <c r="I4">
-        <v>0.1487696778665633</v>
+        <v>0.0183283362562958</v>
       </c>
       <c r="J4">
-        <v>0.1487696778665633</v>
+        <v>0.01832833625629581</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>73.13571999999999</v>
       </c>
       <c r="O4">
-        <v>0.2568745436623085</v>
+        <v>0.3177100917502611</v>
       </c>
       <c r="P4">
-        <v>0.2568745436623085</v>
+        <v>0.3177100917502612</v>
       </c>
       <c r="Q4">
-        <v>1053.463992133716</v>
+        <v>112.5405795883289</v>
       </c>
       <c r="R4">
-        <v>9481.175929203438</v>
+        <v>1012.86521629496</v>
       </c>
       <c r="S4">
-        <v>0.03821514311276208</v>
+        <v>0.005823097393617378</v>
       </c>
       <c r="T4">
-        <v>0.03821514311276208</v>
+        <v>0.005823097393617379</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>713.134216</v>
       </c>
       <c r="I5">
-        <v>0.8183762794517323</v>
+        <v>0.943783113604627</v>
       </c>
       <c r="J5">
-        <v>0.8183762794517323</v>
+        <v>0.9437831136046271</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.94073466666667</v>
+        <v>13.76827833333333</v>
       </c>
       <c r="N5">
-        <v>95.822204</v>
+        <v>41.304835</v>
       </c>
       <c r="O5">
-        <v>0.3365562672414605</v>
+        <v>0.1794330173761795</v>
       </c>
       <c r="P5">
-        <v>0.3365562672414606</v>
+        <v>0.1794330173761795</v>
       </c>
       <c r="Q5">
-        <v>7592.676924992452</v>
+        <v>3272.876791637151</v>
       </c>
       <c r="R5">
-        <v>68334.09232493206</v>
+        <v>29455.89112473436</v>
       </c>
       <c r="S5">
-        <v>0.2754296658112294</v>
+        <v>0.1693458518227638</v>
       </c>
       <c r="T5">
-        <v>0.2754296658112295</v>
+        <v>0.1693458518227638</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>713.134216</v>
       </c>
       <c r="I6">
-        <v>0.8183762794517323</v>
+        <v>0.943783113604627</v>
       </c>
       <c r="J6">
-        <v>0.8183762794517323</v>
+        <v>0.9437831136046271</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>115.755847</v>
       </c>
       <c r="O6">
-        <v>0.406569189096231</v>
+        <v>0.5028568908735593</v>
       </c>
       <c r="P6">
-        <v>0.406569189096231</v>
+        <v>0.5028568908735593</v>
       </c>
       <c r="Q6">
         <v>9172.161688640106</v>
@@ -818,10 +818,10 @@
         <v>82549.45519776095</v>
       </c>
       <c r="S6">
-        <v>0.3327265803122813</v>
+        <v>0.4745878421661899</v>
       </c>
       <c r="T6">
-        <v>0.3327265803122814</v>
+        <v>0.47458784216619</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>713.134216</v>
       </c>
       <c r="I7">
-        <v>0.8183762794517323</v>
+        <v>0.943783113604627</v>
       </c>
       <c r="J7">
-        <v>0.8183762794517323</v>
+        <v>0.9437831136046271</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>73.13571999999999</v>
       </c>
       <c r="O7">
-        <v>0.2568745436623085</v>
+        <v>0.3177100917502611</v>
       </c>
       <c r="P7">
-        <v>0.2568745436623085</v>
+        <v>0.3177100917502612</v>
       </c>
       <c r="Q7">
         <v>5795.064927088391</v>
@@ -880,10 +880,10 @@
         <v>52155.58434379552</v>
       </c>
       <c r="S7">
-        <v>0.2102200333282216</v>
+        <v>0.2998494196156731</v>
       </c>
       <c r="T7">
-        <v>0.2102200333282216</v>
+        <v>0.2998494196156732</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>28.629058</v>
       </c>
       <c r="I8">
-        <v>0.03285404268170446</v>
+        <v>0.03788855013907712</v>
       </c>
       <c r="J8">
-        <v>0.03285404268170446</v>
+        <v>0.03788855013907712</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.94073466666667</v>
+        <v>13.76827833333333</v>
       </c>
       <c r="N8">
-        <v>95.822204</v>
+        <v>41.304835</v>
       </c>
       <c r="O8">
-        <v>0.3365562672414605</v>
+        <v>0.1794330173761795</v>
       </c>
       <c r="P8">
-        <v>0.3365562672414606</v>
+        <v>0.1794330173761795</v>
       </c>
       <c r="Q8">
-        <v>304.8110484448702</v>
+        <v>131.3909463217144</v>
       </c>
       <c r="R8">
-        <v>2743.299436003832</v>
+        <v>1182.51851689543</v>
       </c>
       <c r="S8">
-        <v>0.01105723396874608</v>
+        <v>0.006798456875463272</v>
       </c>
       <c r="T8">
-        <v>0.01105723396874608</v>
+        <v>0.006798456875463274</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>28.629058</v>
       </c>
       <c r="I9">
-        <v>0.03285404268170446</v>
+        <v>0.03788855013907712</v>
       </c>
       <c r="J9">
-        <v>0.03285404268170446</v>
+        <v>0.03788855013907712</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>115.755847</v>
       </c>
       <c r="O9">
-        <v>0.406569189096231</v>
+        <v>0.5028568908735593</v>
       </c>
       <c r="P9">
-        <v>0.406569189096231</v>
+        <v>0.5028568908735593</v>
       </c>
       <c r="Q9">
         <v>368.2200952891251</v>
@@ -1004,10 +1004,10 @@
         <v>3313.980857602126</v>
       </c>
       <c r="S9">
-        <v>0.01335744149163355</v>
+        <v>0.01905251852264328</v>
       </c>
       <c r="T9">
-        <v>0.01335744149163355</v>
+        <v>0.01905251852264329</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>28.629058</v>
       </c>
       <c r="I10">
-        <v>0.03285404268170446</v>
+        <v>0.03788855013907712</v>
       </c>
       <c r="J10">
-        <v>0.03285404268170446</v>
+        <v>0.03788855013907712</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>73.13571999999999</v>
       </c>
       <c r="O10">
-        <v>0.2568745436623085</v>
+        <v>0.3177100917502611</v>
       </c>
       <c r="P10">
-        <v>0.2568745436623085</v>
+        <v>0.3177100917502612</v>
       </c>
       <c r="Q10">
         <v>232.6451966390844</v>
@@ -1066,10 +1066,10 @@
         <v>2093.80676975176</v>
       </c>
       <c r="S10">
-        <v>0.00843936722132484</v>
+        <v>0.01203757474097056</v>
       </c>
       <c r="T10">
-        <v>0.00843936722132484</v>
+        <v>0.01203757474097056</v>
       </c>
     </row>
   </sheetData>
